--- a/Data/Act_jul_2025.xlsx
+++ b/Data/Act_jul_2025.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="5820"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja3" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja3!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$G$130</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="286">
   <si>
     <t>CODINDICADOR</t>
   </si>
@@ -845,7 +845,46 @@
     <t>Porcentaje del ingreso de las mujeres respecto al de los varones por hora de trabajo en ocupación principal</t>
   </si>
   <si>
-    <t>2013-2020</t>
+    <t>Esperanza de vida al nacer</t>
+  </si>
+  <si>
+    <t>2014-2025</t>
+  </si>
+  <si>
+    <t>Mortalidad Infantil</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad infantil (0 a 1 año) por 1000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>2000-2024</t>
+  </si>
+  <si>
+    <t>Mortalidad infantil neonatal</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad infantil neonatal (0 a 27 días) por 1000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>Mortalidad infantil pos neonatal</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad infantil pos neonatal (28 a 364 días) por 1000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>Mortalidad infantil (0 a 5 años)</t>
+  </si>
+  <si>
+    <t>Tasa de mortalidad infantil en menores de 5 años (0 a 5 años) por 1000 menores de 5 años</t>
+  </si>
+  <si>
+    <t>Mortalidad materna</t>
+  </si>
+  <si>
+    <t>Razón de mortalidad materna por 100000 nacidos vivos</t>
+  </si>
+  <si>
+    <t>2013-2020*</t>
   </si>
 </sst>
 </file>
@@ -854,39 +893,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.000&quot;&quot;;\-#,##0.000&quot;&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -902,10 +914,46 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -928,95 +976,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1295,271 +1355,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:S130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="J97" sqref="J97"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="58.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A2" s="6">
         <v>120101</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A3" s="6">
         <v>120102</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="G3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A4" s="6">
         <v>120103</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="G4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A5" s="6">
         <v>120104</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A6" s="4">
         <v>130101</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="F6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A7" s="4">
         <v>130102</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A8" s="4">
         <v>130103</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+      <c r="F8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A9" s="14">
         <v>130104</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="F9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A10" s="14">
         <v>130105</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="F10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A11" s="14">
         <v>130106</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.6" customHeight="1">
       <c r="A12" s="10">
         <v>130107</v>
       </c>
@@ -1569,7 +1662,7 @@
       <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1578,11 +1671,23 @@
       <c r="F12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.6" customHeight="1">
       <c r="A13" s="10">
         <v>130108</v>
       </c>
@@ -1592,7 +1697,7 @@
       <c r="C13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1601,1715 +1706,2103 @@
       <c r="F13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A14" s="6">
         <v>130305</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="F14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A15" s="6">
         <v>130306</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="F15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A16" s="6">
         <v>220101</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A17" s="6">
         <v>220102</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A18" s="6">
         <v>220103</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
+      <c r="G18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A19" s="6">
         <v>220104</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="G19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A20" s="16">
         <v>230101</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="G20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A21" s="16">
         <v>230201</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+    </row>
+    <row r="22" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A22" s="16">
         <v>230202</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="21">
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A23" s="17">
         <v>230203</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="21">
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A24" s="17">
         <v>230204</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="C24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
+      <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A25" s="6">
         <v>230301</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
+      <c r="F25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A26" s="6">
         <v>230302</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
+      <c r="F26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A27" s="6">
         <v>230303</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A28" s="6">
         <v>230304</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.6" customHeight="1">
+      <c r="A29" s="6">
         <v>230401</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
+      <c r="F29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A30" s="16">
         <v>230402</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="C30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
+      <c r="F30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A31" s="16">
         <v>230501</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
+      <c r="F31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A32" s="6">
         <v>320101</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
+      <c r="G32" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A33" s="6">
         <v>320102</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
+      <c r="G33" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A34" s="6">
         <v>320103</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
+      <c r="G34" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A35" s="6">
         <v>320104</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="21">
+      <c r="G35" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A36" s="17">
         <v>330101</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="21">
+      <c r="F36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S36" s="19"/>
+    </row>
+    <row r="37" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A37" s="17">
         <v>330102</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="21">
+      <c r="F37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S37" s="11"/>
+    </row>
+    <row r="38" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A38" s="17">
         <v>330103</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="21">
+      <c r="F38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A39" s="17">
         <v>330104</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="21">
+      <c r="F39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A40" s="17">
         <v>330105</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="21">
+      <c r="F40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A41" s="17">
         <v>330106</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="21">
+      <c r="F41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="19"/>
+    </row>
+    <row r="42" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A42" s="17">
         <v>330107</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="18" t="s">
+      <c r="C42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="21">
+      <c r="F42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S42" s="19"/>
+    </row>
+    <row r="43" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A43" s="17">
         <v>330108</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="18" t="s">
+      <c r="C43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G43" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="21">
+      <c r="G43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="11"/>
+    </row>
+    <row r="44" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A44" s="17">
         <v>330109</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="C44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="21">
+      <c r="G44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="19"/>
+    </row>
+    <row r="45" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A45" s="17">
         <v>330110</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="21">
+      <c r="G45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A46" s="17">
         <v>330111</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="C46" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="21">
+      <c r="G46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="19"/>
+    </row>
+    <row r="47" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A47" s="17">
         <v>330112</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" s="18" t="s">
+      <c r="C47" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="E47" s="24" t="s">
+      <c r="E47" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="21">
+      <c r="G47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="19"/>
+    </row>
+    <row r="48" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A48" s="17">
         <v>330113</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="C48" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E48" s="24" t="s">
+      <c r="E48" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="21">
+      <c r="G48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="19"/>
+    </row>
+    <row r="49" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A49" s="17">
         <v>330114</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E49" s="24" t="s">
+      <c r="E49" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="21">
+      <c r="F49" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="19"/>
+    </row>
+    <row r="50" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A50" s="17">
         <v>330115</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" s="18" t="s">
+      <c r="C50" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="E50" s="24" t="s">
+      <c r="E50" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="21">
+      <c r="F50" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="19"/>
+    </row>
+    <row r="51" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A51" s="17">
         <v>330201</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="C51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="21">
+      <c r="F51" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S51" s="19"/>
+    </row>
+    <row r="52" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A52" s="17">
         <v>330202</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="21">
+      <c r="F52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S52" s="19"/>
+    </row>
+    <row r="53" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A53" s="17">
         <v>330203</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="21">
+      <c r="F53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S53" s="11"/>
+    </row>
+    <row r="54" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A54" s="17">
         <v>330204</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="21">
+      <c r="F54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A55" s="17">
         <v>330205</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="21">
+      <c r="F55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A56" s="17">
         <v>330206</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="21">
+      <c r="F56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A57" s="17">
         <v>330207</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
+      <c r="F57" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A58" s="17">
         <v>330208</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="18" t="s">
+      <c r="C58" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="21">
+      <c r="F58" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A59" s="17">
         <v>330209</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="21">
+      <c r="F59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A60" s="17">
         <v>330210</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="21">
+      <c r="F60" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A61" s="17">
         <v>330211</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="C61" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="21">
+      <c r="F61" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S61" s="3"/>
+    </row>
+    <row r="62" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A62" s="17">
         <v>330212</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="21">
+      <c r="F62" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" s="19" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A63" s="17">
         <v>330213</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" s="18" t="s">
+      <c r="C63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="5" t="s">
+      <c r="E63" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="5">
+      <c r="F63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" s="19" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A64" s="6">
         <v>420101</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="5">
+      <c r="G64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="11"/>
+    </row>
+    <row r="65" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A65" s="6">
         <v>420102</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G65" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="5">
+      <c r="G65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+    </row>
+    <row r="66" spans="1:19" s="19" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A66" s="6">
         <v>420103</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G66" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="5">
+      <c r="G66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="3"/>
+    </row>
+    <row r="67" spans="1:19" s="6" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A67" s="6">
         <v>420104</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G67" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="5">
+      <c r="G67" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S67" s="15"/>
+    </row>
+    <row r="68" spans="1:19" s="19" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A68" s="6">
         <v>430101</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E68" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="21">
+      <c r="F68" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="1:19" s="19" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A69" s="6">
+        <v>430102</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="3"/>
+    </row>
+    <row r="70" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A70" s="6">
+        <v>430104</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="19"/>
+      <c r="P70" s="19"/>
+      <c r="Q70" s="19"/>
+      <c r="R70" s="19"/>
+      <c r="S70" s="19"/>
+    </row>
+    <row r="71" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A71" s="6">
+        <v>430105</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="19"/>
+      <c r="P71" s="19"/>
+      <c r="Q71" s="19"/>
+      <c r="R71" s="19"/>
+    </row>
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A72" s="6">
+        <v>430106</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="19"/>
+      <c r="S72" s="4"/>
+    </row>
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A73" s="6">
+        <v>430107</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F73" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="4"/>
+    </row>
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A74" s="6">
+        <v>430108</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="F74" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="4"/>
+    </row>
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A75" s="17">
         <v>530101</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B75" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E75" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G69" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="21">
+      <c r="F75" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A76" s="17">
         <v>530102</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B76" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="C76" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E76" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="21">
+      <c r="F76" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A77" s="17">
         <v>530103</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B77" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="C77" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E77" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="21">
+      <c r="F77" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A78" s="17">
         <v>530104</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B78" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C78" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E78" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="21">
+      <c r="F78" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A79" s="17">
         <v>530201</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="C79" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E79" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="21">
+      <c r="F79" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A80" s="17">
         <v>530202</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B80" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="C80" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E80" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="21">
+      <c r="F80" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A81" s="17">
         <v>530203</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B81" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C81" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E81" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="21">
+      <c r="F81" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A82" s="17">
         <v>530204</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B82" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C82" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E82" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G76" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="21">
+      <c r="F82" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A83" s="17">
         <v>530205</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B83" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C83" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E83" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="21">
+      <c r="F83" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A84" s="17">
         <v>530206</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B84" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="6" t="s">
+      <c r="C84" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E84" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="21">
+      <c r="F84" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A85" s="17">
         <v>530207</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B85" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="C85" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E85" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="21">
+      <c r="F85" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A86" s="17">
         <v>530208</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B86" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="6" t="s">
+      <c r="C86" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E86" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="F86" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="3" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A87" s="3">
         <v>530209</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="C87" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E87" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="5">
+      <c r="F87" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A88" s="6">
         <v>620101</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="5">
-        <v>620102</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="5">
-        <v>620103</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="5">
-        <v>620104</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>620105</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
-        <v>620106</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="5">
-        <v>620107</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>7</v>
@@ -3317,22 +3810,22 @@
       <c r="C88" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>25</v>
+      <c r="D88" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
-        <v>620108</v>
+        <v>11</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A89" s="6">
+        <v>620102</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>7</v>
@@ -3340,22 +3833,22 @@
       <c r="C89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>28</v>
+      <c r="D89" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="5">
-        <v>620109</v>
+        <v>15</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A90" s="6">
+        <v>620103</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>7</v>
@@ -3363,802 +3856,1093 @@
       <c r="C90" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A91" s="6">
+        <v>620104</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A92" s="6">
+        <v>620105</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A93" s="6">
+        <v>620106</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A94" s="6">
+        <v>620107</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A95" s="6">
+        <v>620108</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A96" s="6">
+        <v>620109</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E96" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F96" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G90" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="5">
+      <c r="G96" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A97" s="6">
         <v>620110</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B97" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C97" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D97" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E97" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F97" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G91" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="5">
+      <c r="G97" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A98" s="6">
         <v>620111</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B98" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C98" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D98" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E98" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F98" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G92" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="5">
+      <c r="G98" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A99" s="6">
         <v>620112</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B99" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C99" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D99" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E99" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F99" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G93" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="5">
+      <c r="G99" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A100" s="6">
         <v>620113</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B100" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C100" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D100" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E100" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F100" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G94" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="6">
+      <c r="G100" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A101" s="11">
         <v>630101</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B101" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="C101" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E101" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="6">
+      <c r="F101" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A102" s="11">
         <v>630102</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B102" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="C102" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E102" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
+      <c r="F102" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A103" s="11">
         <v>630103</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B103" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D97" s="12" t="s">
+      <c r="C103" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E103" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
+      <c r="F103" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A104" s="11">
         <v>630201</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B104" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="13" t="s">
+      <c r="C104" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E98" s="13" t="s">
+      <c r="E104" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F104" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
+      <c r="G104" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A105" s="11">
         <v>630202</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B105" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D99" s="13" t="s">
+      <c r="C105" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="13" t="s">
+      <c r="E105" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F99" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
+      <c r="F105" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A106" s="11">
         <v>630203</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B106" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D100" s="13" t="s">
+      <c r="C106" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D106" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E100" s="13" t="s">
+      <c r="E106" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F106" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G100" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
+      <c r="G106" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A107" s="11">
         <v>630204</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B107" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D101" s="13" t="s">
+      <c r="C107" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D107" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E101" s="13" t="s">
+      <c r="E107" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F107" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="6">
+      <c r="G107" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A108" s="11">
         <v>630205</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B108" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D102" s="13" t="s">
+      <c r="C108" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D108" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E102" s="13" t="s">
+      <c r="E108" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F108" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G102" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="6">
+      <c r="G108" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A109" s="11">
         <v>630206</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B109" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D103" s="13" t="s">
+      <c r="C109" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E103" s="13" t="s">
+      <c r="E109" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F109" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G103" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="6">
+      <c r="G109" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A110" s="11">
         <v>630207</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B110" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D104" s="13" t="s">
+      <c r="C110" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="13" t="s">
+      <c r="E110" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F110" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G104" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="6">
+      <c r="G110" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A111" s="11">
         <v>630208</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B111" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D105" s="13" t="s">
+      <c r="C111" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D111" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E105" s="13" t="s">
+      <c r="E111" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F111" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G105" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="6">
+      <c r="G111" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A112" s="11">
         <v>630209</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B112" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D106" s="13" t="s">
+      <c r="C112" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D112" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E106" s="13" t="s">
+      <c r="E112" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F112" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="6">
+      <c r="G112" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A113" s="11">
         <v>630210</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B113" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D107" s="14" t="s">
+      <c r="C113" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E113" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F113" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G107" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="6">
+      <c r="G113" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A114" s="11">
         <v>630211</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B114" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D108" s="14" t="s">
+      <c r="C114" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E114" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F114" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="G108" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="6">
+      <c r="G114" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A115" s="11">
         <v>630212</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B115" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" s="6" t="s">
+      <c r="C115" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E115" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F115" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G109" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="6">
+      <c r="G115" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A116" s="11">
         <v>630213</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B116" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="C116" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E116" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F116" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G110" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
+      <c r="G116" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A117" s="3">
         <v>730101</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="C117" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
+      <c r="F117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+    </row>
+    <row r="118" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A118" s="3">
         <v>730102</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E118" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
+      <c r="F118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+    </row>
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A119" s="3">
         <v>730103</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="2" t="s">
+      <c r="C119" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E119" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
+      <c r="F119" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+    </row>
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A120" s="3">
         <v>730104</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="C120" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E120" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
+      <c r="F120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+    </row>
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A121" s="3">
         <v>730201</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C121" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E121" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
+      <c r="F121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+      <c r="R121" s="4"/>
+      <c r="S121" s="4"/>
+    </row>
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A122" s="3">
         <v>730202</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="C122" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D122" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E122" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
+      <c r="F122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+    </row>
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A123" s="3">
         <v>730203</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="C123" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E123" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
+      <c r="F123" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+    </row>
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A124" s="3">
         <v>730204</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E124" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G118" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="2">
+      <c r="F124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
+      <c r="R124" s="4"/>
+      <c r="S124" s="4"/>
+    </row>
+    <row r="125" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A125" s="3">
         <v>730205</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="C125" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E125" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="25">
+      <c r="F125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+    </row>
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A126" s="27">
         <v>8200105</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B126" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C120" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D120" s="22" t="s">
+      <c r="C126" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="E120" s="22" t="s">
+      <c r="E126" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="F120" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="25">
+      <c r="F126" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="4"/>
+    </row>
+    <row r="127" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A127" s="27">
         <v>8300109</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B127" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C121" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D121" s="22" t="s">
+      <c r="C127" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="E121" s="22" t="s">
+      <c r="E127" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="F121" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="25">
+      <c r="F127" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="4"/>
+    </row>
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A128" s="27">
         <v>8300110</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B128" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C122" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D122" s="22" t="s">
+      <c r="C128" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="E122" s="22" t="s">
+      <c r="E128" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="F122" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="27">
+      <c r="F128" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="4"/>
+    </row>
+    <row r="129" spans="1:19" s="34" customFormat="1">
+      <c r="A129" s="28">
         <v>8300111</v>
       </c>
-      <c r="B123" s="27" t="s">
+      <c r="B129" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C123" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D123" s="29" t="s">
+      <c r="C129" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D129" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E129" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="F123" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="25">
+      <c r="F129" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="28"/>
+      <c r="I129" s="28"/>
+      <c r="J129" s="28"/>
+      <c r="K129" s="28"/>
+      <c r="L129" s="32"/>
+      <c r="M129" s="32"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="32"/>
+      <c r="Q129" s="32"/>
+      <c r="R129" s="32"/>
+      <c r="S129" s="33"/>
+    </row>
+    <row r="130" spans="1:19" s="11" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A130" s="27">
         <v>8300201</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B130" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C124" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D124" s="22" t="s">
+      <c r="C130" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E124" s="22" t="s">
+      <c r="E130" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="F124" s="26" t="s">
+      <c r="F130" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G124" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>